--- a/Output_testing/R1_201907/Country/HKD/MN/PHILIPPINES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PHILIPPINES_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>5360.024261</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>21.10204994163469</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>6102.574259</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>21.44619883756751</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>6075.420892</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>20.06587958551406</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5249.042103</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25.31169822314273</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>59.53105272821675</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>4289.938996</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>16.88919723719104</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>4394.139863</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>15.44226964268386</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5330.433054</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>17.60533627243021</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3619.681203</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>17.45466629462816</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>19.10141375303396</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1725.80362</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.79437114560738</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>3207.31169</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>11.271414540569</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3115.290676</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.28917151415864</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2004.716868</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.667056843887512</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>16.44874999307526</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2023.667277</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.967040047788671</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1974.26049</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.938118444564667</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2293.806592</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.575976658364227</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1344.750941</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.484598396424637</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-2.972277736968165</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1843.430286</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>7.257459307065981</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1933.794946</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>6.795910899705304</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1970.253273</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.5073458500697</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1030.753801</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.970455302379446</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-9.564039140458803</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>549.246231</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.162344950777196</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>498.89036</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.753244025326925</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>782.617497</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.584826423630504</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>573.0175829999999</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.763179996053204</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>70.07407576124156</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>964.123339</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.795687828785667</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1124.017614</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.950120756207287</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1023.320794</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.379820459319156</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>490.888192</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.367139286253148</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-11.1417512808725</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>500.764679</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.971476387178364</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>574.248121</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.018072843096153</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>597.430312</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.973190814995817</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>401.50942</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.936140932643814</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>27.21338290903681</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>386.423654</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.521323570243624</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>556.335078</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.955121264686872</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>760.420031</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.511512707959208</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>391.898027</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.889793299238286</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-4.17059682698715</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>94.228475</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3709710793367014</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>124.538212</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.4376630490793567</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>202.582846</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.6690899389833974</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>358.789622</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.730139415812464</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>7662.840015</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>30.16807850439069</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>7965.161582</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>27.99186569651307</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>8125.795459</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>26.83784977457508</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5272.565563</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.4251320095366</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>15.74449513952485</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,435 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>144.81555</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>30.23876445247295</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>127.0769</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>29.57150676815756</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>137.374216</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>32.45349912671535</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>94.406936</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>37.74247981569334</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>14.06963173560989</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>43.622122</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>9.10868392292843</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>50.034841</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.64338789563789</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>41.765437</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>9.86673200163257</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>38.713856</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.47722011301859</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>82.63104984703638</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.774573</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.3705464982919188</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>25.985729</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>6.047024762163761</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>33.558345</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>7.927875782392182</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>20.320126</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.123682198597628</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>22.29669849711411</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>8.207897000000001</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.713881306483726</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>17.399687</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.049004672637773</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>20.768423</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.906364653566104</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>15.221886</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>6.085482163215053</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>16.56101538560262</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>13.399416</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.797916275045721</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>16.209648</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.772075928366615</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>24.064766</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>5.685097867023382</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>12.308254</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.920655704379887</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>10.41375417676171</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>OTHER INORGANIC CHEMICALS; ORGANIC AND INORGANIC COMPOUNDS OF PRECIOUS METALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>17.354911</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>3.623858527779867</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>16.31532</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.796666394951847</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>17.935113</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>4.237019078478608</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>11.250797</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.497900225074175</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>4.374009502835485</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>90.611757</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>18.92053426961205</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>12.211947</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.841788502575065</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>2.149178</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.5077251639867837</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>6.626189</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.649051173395451</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>23.826455</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>4.97517400916163</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>25.611032</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>5.959830670464102</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>20.474079</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>4.836828367754261</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>6.344566</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.53646251366885</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-62.06978620423514</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF VINYL CHLORIDE OR OF OTHER HALOGENATED OLEFINS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1.671675</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.3490604880904552</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.79515</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.1850358610156565</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>3.521497</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.8319239457150441</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>5.577789</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.229916547113619</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>79.02236227306018</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>6.659029</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.390464003438764</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>22.531777</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>5.243270775838226</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>23.597875</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>5.574798808714134</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>5.239408</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.094636888609352</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-40.78050617591217</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>126.963583</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>26.5111162466945</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>115.55548</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>26.8904077681915</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>98.08661600000001</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>23.17213520402158</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>34.124621</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>13.64251265723405</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-42.13939377620839</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1730,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>5360.023907</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>21.50755720838291</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>6102.517508</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>21.77483996280367</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>6075.382056</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>20.35025997862673</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5249.015859</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.62060410605734</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>59.53153027788651</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>4289.088217</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>17.21033558795441</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>4394.138109</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>15.67904622518483</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5330.410189</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>17.85488256359805</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3619.681203</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>17.66777269937</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>19.10141375303396</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1682.181498</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.749898028601883</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>3157.276849</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>11.26571091604643</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>3073.525239</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.29516120763959</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1966.003012</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.596119766985121</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>15.62366965166553</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2023.151508</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>8.118069537471591</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1970.837533</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>7.03228984062782</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2274.059494</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.61724966153542</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1340.146061</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.541293186283963</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-2.510816335416954</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1836.771257</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>7.37020274052313</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1911.263169</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.819718186341659</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1946.655398</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.520568265986448</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1025.514393</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.005566562171191</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-9.319824402139309</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>549.246231</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.203897769801719</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>498.558481</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.778943054508561</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>782.5109670000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.621119374517342</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>573.0175829999999</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.796916038018938</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>70.09597372297918</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>964.123339</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.868627869812158</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1124.017614</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.01068962573838</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1023.320794</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.427742322619576</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>490.860522</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.395904955000565</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-11.14675997283562</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>500.764679</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.009361370098457</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>574.163806</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.048715955619059</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>597.423675</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.001146099384767</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>401.487268</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.959671417150226</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>27.20636431689967</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>386.423654</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.5505581671424</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>556.335078</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.985099964606918</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>760.420031</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.547122992622771</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>391.898027</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.912866043735832</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-4.17059682698715</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>94.228475</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3780998652029294</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>124.538212</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.4443739214182875</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>202.582846</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.6785768442724753</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>358.789622</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.751262924241807</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>7235.5811</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>29.03339185500841</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>7611.898345</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>27.16057234710438</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7787.785192</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>26.08617068919682</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5071.065345</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>24.75202230098503</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>16.48907419819519</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2190,445 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>40745.593414</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>68.17262666520486</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>53145.506054</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>69.67652055957237</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>51983.302399</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>67.39816186964427</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>26502.753114</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>69.17780728382958</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-11.17115762696952</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4046.56597</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.770426150037285</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4709.129225</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.173913160785491</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>4501.436199</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>5.836268793725473</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2547.525282</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>6.649581356730273</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-14.39224701595178</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3166.857506</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.298560564938537</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3572.559038</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.683810574850248</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3092.017803</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.008908760564331</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1967.598676</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.135849903395294</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>16.35129673574946</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1815.323778</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.037270532217637</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3470.726706</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.550303095082951</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>4410.356629</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.718180959390507</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1502.7011</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.922368617850708</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-49.97281233911015</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1615.464523</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.702880252555653</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1758.92073</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.306036493132214</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1798.873863</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.332302608844616</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>880.534127</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.298380846790735</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-12.26255283445429</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1361.299995</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.277630255511101</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1731.575018</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.270184843465954</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1827.921661</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.36996409053606</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>874.840524</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.283519335256805</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-17.26189952987699</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>23.6952</v>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>34.709475</v>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>203.016247</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2632176342405076</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>602.171984</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.571796608514161</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>204.0070651661435</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1840.386984</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.079204504520126</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2739.798939</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.592018804155502</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2600.916371</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.372178651455548</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>528.409456</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.379260764226475</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-64.05511147191044</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>549.755351</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.9198115221962702</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>568.39581</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.7451964480533723</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>598.168552</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7755463587823591</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>357.686015</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.9336363700539498</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-0.4111775915152327</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>STONE, SAND AND GRAVEL</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>11.087653</v>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>10.443559</v>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>8.83629</v>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>192.775038</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.5031837398376681</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4592.230594</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>7.683393358991466</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4532.862289</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>5.942818046596575</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>6103.818859</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.913813715109089</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2354.067371</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>6.144615173514359</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-45.0948761515703</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
